--- a/cfg/robotTask0.xlsx
+++ b/cfg/robotTask0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{55451898-54E6-4452-9426-83B53D00C0C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AAEDFAF6-3C4E-4336-84EC-5A2FD24E7A91}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>taskId</t>
   </si>
@@ -52,7 +52,11 @@
     <t>login</t>
   </si>
   <si>
-    <t>club</t>
+    <t>club,create</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>club,enter</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1005,13 +1009,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1064,16 +1072,36 @@
         <v>201</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cfg/robotTask0.xlsx
+++ b/cfg/robotTask0.xlsx
@@ -5,22 +5,114 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123-PC\Desktop\压力测试配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AAEDFAF6-3C4E-4336-84EC-5A2FD24E7A91}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90846DF2-B987-4C27-9A7F-06748E39EB8D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="robotTask0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>123-PC</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2268C1AF-7E57-4372-A24D-C449BBAC6AC9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123-PC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1:创建club
+0：加入club
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{F062795F-F651-4D9C-A376-C14674E40547}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123-PC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：创建table
+0：表示不创建</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{9D063489-C6A2-459B-8A21-EE647F5C116E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123-PC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：表示加入table
+0：表示不加入table</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>taskId</t>
   </si>
@@ -57,6 +149,13 @@
   </si>
   <si>
     <t>club,enter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzmj,create,enter</t>
+  </si>
+  <si>
+    <t>xzmj,create,enter</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +322,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1008,11 +1122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1104,9 +1218,50 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>301</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>301</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/cfg/robotTask0.xlsx
+++ b/cfg/robotTask0.xlsx
@@ -150,7 +150,131 @@
         </r>
       </text>
     </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">123-PC:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：创建</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">table
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：表示不创建</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">123-PC:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：表示加入</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">table
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：表示不加入</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">taskId</t>
   </si>
@@ -261,6 +385,9 @@
   </si>
   <si>
     <t xml:space="preserve">xzmj,create,enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddz,create,enter</t>
   </si>
 </sst>
 </file>
@@ -380,18 +507,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,6 +642,46 @@
       </c>
       <c r="I6" s="0" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cfg/robotTask0.xlsx
+++ b/cfg/robotTask0.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>

--- a/cfg/robotTask0.xlsx
+++ b/cfg/robotTask0.xlsx
@@ -157,13 +157,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="9.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
@@ -171,7 +171,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="9.12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -200,7 +200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -214,14 +214,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/cfg/robotTask0.xlsx
+++ b/cfg/robotTask0.xlsx
@@ -65,6 +65,7 @@
       <color rgb="FF000000"/>
       <name val="文泉驿点阵正黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,6 +215,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
